--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -76,321 +76,315 @@
     <t>beautifully</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>friend</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>cookies</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>fan</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>brand</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>pot</t>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -761,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -880,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -930,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3023255813953488</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3018867924528302</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1923076923076923</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1818181818181818</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8328173374613003</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L9">
-        <v>538</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>538</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1297297297297297</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8260869565217391</v>
+        <v>0.8281733746130031</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1247,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1273,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7045454545454546</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1299,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6938775510204082</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1325,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6926406926406926</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L15">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1351,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6571428571428571</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1386,13 +1377,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6542372881355932</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L17">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1412,13 +1403,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6342857142857142</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1438,13 +1429,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6301369863013698</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1464,13 +1455,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1490,13 +1481,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1516,13 +1507,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6243980738362761</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>778</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>778</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>468</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1542,13 +1533,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6197183098591549</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1568,13 +1559,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1594,13 +1585,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1620,13 +1611,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5964912280701754</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1646,25 +1637,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5925925925925926</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>16</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1672,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5897435897435898</v>
+        <v>0.578125</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1750,13 +1741,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1776,13 +1767,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.5625</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1802,13 +1793,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1828,13 +1819,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5299145299145299</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1854,13 +1845,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1880,13 +1871,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5230769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1906,13 +1897,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5172413793103449</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1932,13 +1923,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5149700598802395</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L38">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M38">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1958,13 +1949,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1984,13 +1975,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4939759036144578</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2010,13 +2001,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4903846153846154</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2036,13 +2027,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.481203007518797</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L42">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2062,13 +2053,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.45</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2088,13 +2079,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2114,13 +2105,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4426229508196721</v>
+        <v>0.44</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2140,13 +2131,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4358974358974359</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2169,10 +2160,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2192,13 +2183,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4216867469879518</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L48">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2218,13 +2209,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4166666666666667</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2244,13 +2235,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4107142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2270,13 +2261,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2288,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2296,13 +2287,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.3968253968253968</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2314,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2322,13 +2313,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.3870967741935484</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2348,13 +2339,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.3658536585365854</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2366,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2374,13 +2365,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3383458646616541</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2400,13 +2391,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3260869565217391</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2426,13 +2417,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3235294117647059</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L57">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>276</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2452,13 +2443,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3229571984435798</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L58">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2470,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>174</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2478,13 +2469,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3157894736842105</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2504,13 +2495,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3153153153153153</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2522,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2530,13 +2521,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2548,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2556,13 +2547,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.2976190476190476</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2574,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2582,13 +2573,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.2805755395683453</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2600,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2608,13 +2599,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.2794117647058824</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2626,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2634,13 +2625,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.2780821917808219</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L65">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2652,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>527</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2660,13 +2651,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.2777777777777778</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2678,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2686,13 +2677,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.2638888888888889</v>
+        <v>0.263013698630137</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2704,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>53</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2712,13 +2703,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.2488038277511962</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L68">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="M68">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2730,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>157</v>
+        <v>716</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2738,13 +2729,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.2475247524752475</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2756,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2764,13 +2755,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.232508073196986</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L70">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2782,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>713</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2790,13 +2781,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2285714285714286</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2808,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2816,7 +2807,7 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2147651006711409</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L72">
         <v>32</v>
@@ -2834,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2842,13 +2833,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2119205298013245</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2860,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2868,7 +2859,7 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L74">
         <v>17</v>
@@ -2886,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2894,13 +2885,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1847826086956522</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2912,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2920,13 +2911,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1818181818181818</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L76">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2938,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>261</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2946,13 +2937,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1748344370860927</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L77">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="M77">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2964,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>623</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2972,13 +2963,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1717171717171717</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2990,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2998,25 +2989,25 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1696428571428572</v>
+        <v>0.1774834437086093</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="M79">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>93</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3024,13 +3015,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1651376146788991</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3042,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>91</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3050,13 +3041,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.1639344262295082</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3068,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3076,13 +3067,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.1636828644501279</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L82">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M82">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3094,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>654</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3102,13 +3093,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.1615384615384615</v>
+        <v>0.16</v>
       </c>
       <c r="L83">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3120,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3128,13 +3119,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.1612903225806452</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3146,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3154,25 +3145,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.1531531531531531</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85">
         <v>17</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3180,13 +3171,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.1443298969072165</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L86">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3198,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>249</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3206,13 +3197,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1346153846153846</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3224,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>135</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3232,13 +3223,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1282051282051282</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3250,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3258,13 +3249,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1272727272727273</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3276,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3284,13 +3275,13 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1266846361185984</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L90">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M90">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3302,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>324</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3310,13 +3301,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1221374045801527</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3328,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3336,13 +3327,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.121654501216545</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3354,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>361</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3362,13 +3353,13 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1182266009852217</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L93">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M93">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3380,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3388,25 +3379,25 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1113636363636364</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L94">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M94">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>391</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3414,13 +3405,13 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1111111111111111</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L95">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M95">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3432,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>240</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3440,13 +3431,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1097560975609756</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3466,13 +3457,13 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1073446327683616</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M97">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3484,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3518,13 +3509,13 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1008403361344538</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3536,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3544,13 +3535,13 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.09815950920245399</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L100">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M100">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3562,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>147</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3570,13 +3561,13 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.09803921568627451</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L101">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3588,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>138</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3596,13 +3587,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.09307875894988067</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L102">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M102">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3614,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>380</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3622,13 +3613,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.08333333333333333</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L103">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M103">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3640,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3648,13 +3639,13 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.07211538461538461</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L104">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M104">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3666,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>193</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3674,13 +3665,13 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.07173601147776183</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L105">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M105">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N105">
         <v>0.98</v>
@@ -3692,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3700,13 +3691,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.06048387096774194</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L106">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3718,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>233</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3726,13 +3717,13 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.06010928961748634</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3744,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3752,13 +3743,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.05970149253731343</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="L108">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3770,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>1008</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3778,13 +3769,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.0583756345177665</v>
+        <v>0.04059040590405904</v>
       </c>
       <c r="L109">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M109">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3796,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>371</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3804,25 +3795,25 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.04120879120879121</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N110">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>349</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3830,103 +3821,25 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.04066543438077634</v>
+        <v>0.02683982683982684</v>
       </c>
       <c r="L111">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M111">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N111">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O111">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="112" spans="10:17">
-      <c r="J112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K112">
-        <v>0.04022988505747126</v>
-      </c>
-      <c r="L112">
-        <v>21</v>
-      </c>
-      <c r="M112">
-        <v>21</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K113">
-        <v>0.03025064822817632</v>
-      </c>
-      <c r="L113">
-        <v>35</v>
-      </c>
-      <c r="M113">
-        <v>35</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K114">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="L114">
-        <v>15</v>
-      </c>
-      <c r="M114">
-        <v>17</v>
-      </c>
-      <c r="N114">
-        <v>0.88</v>
-      </c>
-      <c r="O114">
-        <v>0.12</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>750</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
